--- a/medicine/Handicap/Station_17/Station_17.xlsx
+++ b/medicine/Handicap/Station_17/Station_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Station 17 est un groupe allemand de rock, originaire de Hambourg.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1989, le musicien et éducateur socio-médical Kai Boysen se concentre sur l'idée d'enregistrer un album avec les résidents du groupe résidentiel 17 de l'Evangelische Stiftung Alsterdorf qui accueille des handicapés mentaux[1]. Cet album est créé avec la participation de Michael Rother, Holger Czukay, FM Einheit, Thomas Fehlmann, ainsi que Markus Grosskopf (Helloween) et Kai Hansen (Gamma Ray) et sort en 1990 chez Mercury/Phonogram.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, le musicien et éducateur socio-médical Kai Boysen se concentre sur l'idée d'enregistrer un album avec les résidents du groupe résidentiel 17 de l'Evangelische Stiftung Alsterdorf qui accueille des handicapés mentaux. Cet album est créé avec la participation de Michael Rother, Holger Czukay, FM Einheit, Thomas Fehlmann, ainsi que Markus Grosskopf (Helloween) et Kai Hansen (Gamma Ray) et sort en 1990 chez Mercury/Phonogram.
 Après plusieurs concerts, Alfred Hilsberg, propriétaire du label What's So Funny About, exprime son intérêt pour le groupe et sort l'album suivant, Genau So, en 1993. Au cours des deux années suivantes (également en raison des nombreuses tournées du groupe), la presse allemande fait connaître Station 17. Le projet d'enregistrer un album live est abandonné au profit du film-concert Station 17 – Der Film.
 L'album Scheibe, sorti en 1997, montre pour la première fois un virage clair vers la musique électronique et est enregistré lors de tournées à travers l'Europe. L'album Bravo paraît deux ans plus tard. Cependant, il y a aussi eu un changement dans la formation du groupe en raison des différences musicales.
 Pour combler l'attente, l'album de remix Hitparade sort en 2001 avec des remix de DJ Koze, Cosmic DJ et Thomas Fehlmann. Station 17 est photographié par Anton Corbijn dans le cadre de la campagne d'Aktion Sorgenkind qui change de nom pour Aktion Mensch. Daniel Miller découvre ces photos et signe Station 17 dans son label Mute Records.
@@ -552,7 +566,9 @@
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Albums
 Station 17 (1990, Mercury/Phonogram)
